--- a/data/matrix.xlsx
+++ b/data/matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="128">
   <si>
     <t>Theme\Blockchain</t>
   </si>
@@ -94,16 +94,16 @@
     <t>Cryptographic Protocols</t>
   </si>
   <si>
-    <t>302, 303, 307, 382, 383, 384, 385, 409, 485, 489, 492, 433, 453, 474, 501, 513</t>
-  </si>
-  <si>
-    <t>306, 424, 331, 435, 460, 474, 475</t>
+    <t>302, 303, 307, 382, 383, 384, 385, 409, 485, 489, 433, 453, 474, 501, 513</t>
+  </si>
+  <si>
+    <t>306, 424, 331, 435, 460, 474, 475, 492</t>
   </si>
   <si>
     <t>331, 434</t>
   </si>
   <si>
-    <t>304, 305</t>
+    <t>304, 305, 553, 555, 556</t>
   </si>
   <si>
     <t>Distributed Consistency</t>
@@ -130,10 +130,10 @@
     <t>317, 357, 442, 444</t>
   </si>
   <si>
-    <t>331, 334, 335, 336, 357, 425, 430, 460</t>
-  </si>
-  <si>
-    <t>331,334, 336,357, 446, 447</t>
+    <t>331, 334, 335, 336, 357, 425, 430, 460, 550</t>
+  </si>
+  <si>
+    <t>331,334, 336,357, 446, 447, 550</t>
   </si>
   <si>
     <t>Cloud Security</t>
@@ -157,10 +157,10 @@
     <t>DeFi</t>
   </si>
   <si>
-    <t>423, 309, 339, 456, 472, 473, 477, 505, 512, 513</t>
-  </si>
-  <si>
-    <t>319, 320, 395, 466, 467, 471, 473</t>
+    <t>423, 309, 339, 456, 472, 473, 477, 505, 513</t>
+  </si>
+  <si>
+    <t>319, 320, 395, 466, 467, 471, 473, 512</t>
   </si>
   <si>
     <t>319, 395, 473</t>
@@ -181,6 +181,9 @@
     <t>418, 420, 421, 313, 349, 350, 427, 444</t>
   </si>
   <si>
+    <t>313, 503</t>
+  </si>
+  <si>
     <t>313, 481, 508</t>
   </si>
   <si>
@@ -193,7 +196,7 @@
     <t>418, 420, 421, 312 ,396, 410, 411, 412, 413</t>
   </si>
   <si>
-    <t>306, 312, 396, 410, 411, 412, 413, 415, 469</t>
+    <t>306, 312, 396, 410, 411, 412, 413, 415, 469, 523</t>
   </si>
   <si>
     <t>306, 312, 396, 410, 412, 413, 415, 508, 521, 523</t>
@@ -202,7 +205,7 @@
     <t>312, 410, 412, 413</t>
   </si>
   <si>
-    <t>410, 411, 412, 413</t>
+    <t>410, 411, 412, 413, 523</t>
   </si>
   <si>
     <t>CryptoAsset Remittance</t>
@@ -220,15 +223,21 @@
     <t>Blockchain Accountability &amp; Security</t>
   </si>
   <si>
-    <t>303, 309, 315, 316, 318, 324, 325, 326, 399, 452, 453, 456, 535, 546, 548, 549, 550</t>
+    <t>303, 309, 315, 316, 318, 324, 325, 326, 399, 452, 453, 456, 546, 548, 549</t>
   </si>
   <si>
     <t>369, 544, 545</t>
   </si>
   <si>
+    <t>319, 320, 535, 550</t>
+  </si>
+  <si>
     <t>319, 320</t>
   </si>
   <si>
+    <t>319, 535</t>
+  </si>
+  <si>
     <t>Cross-domain Data Access</t>
   </si>
   <si>
@@ -250,13 +259,13 @@
     <t>Efficiency and Scalability</t>
   </si>
   <si>
-    <t>307,314, 316, 318, 332, 380, 431, 472, 474, 543</t>
-  </si>
-  <si>
-    <t>317, 356, 442, 448</t>
-  </si>
-  <si>
-    <t>319, 331, 333,337,365, 425, 435, 467, 468, 469, 474, 475</t>
+    <t>307,314, 316, 318, 332, 380, 431, 472, 474, 557</t>
+  </si>
+  <si>
+    <t>317, 356, 442, 448, 543</t>
+  </si>
+  <si>
+    <t>319, 331, 333,337,365, 425, 435, 467, 468, 469, 474, 475, 543</t>
   </si>
   <si>
     <t>319,331, 333,337,365, 445, 446</t>
@@ -271,7 +280,7 @@
     <t>347, 365</t>
   </si>
   <si>
-    <t>449, 459, 464</t>
+    <t>449, 459, 464, 552</t>
   </si>
   <si>
     <t>Cryptocurrency Adoption and Brand Perception</t>
@@ -313,13 +322,13 @@
     <t>Smart Contract Security &amp; Monitoring</t>
   </si>
   <si>
-    <t>443, 456, 472, 501, 502, 503, 547</t>
+    <t>443, 456, 472, 501, 502, 503</t>
   </si>
   <si>
     <t>348, 444, 448</t>
   </si>
   <si>
-    <t>321,330, 345, 346, 460, 466, 467, 468</t>
+    <t>321,330, 345, 346, 460, 466, 467, 468, 547, 503</t>
   </si>
   <si>
     <t>330, 434</t>
@@ -328,10 +337,10 @@
     <t>Access Control &amp; Security Models in Blockchain</t>
   </si>
   <si>
-    <t>322, 340, 375, 485, 486, 488, 495, 496, 497, 451, 501, 502</t>
-  </si>
-  <si>
-    <t>343, 367</t>
+    <t>322, 340, 375, 485, 486, 488, 495, 496, 493, 451, 501, 502</t>
+  </si>
+  <si>
+    <t>343, 367, 497</t>
   </si>
   <si>
     <t>329, 363, 374, 397, 511, 514, 515, 526</t>
@@ -370,7 +379,7 @@
     <t>360, 362, 371, 372, 373, 376, 377, 498, 499, 500, 504</t>
   </si>
   <si>
-    <t xml:space="preserve">309, 311, 355, 437, 438, 439, 440, 462, 472, 513, 514, 519, 520, 524, 527, 530, 531, 532, 533, 537, 540, </t>
+    <t xml:space="preserve">309, 311, 355, 437, 438, 439, 440, 462, 472, 513, 514, 519, 520, 524, 527, 531, 532, 533, 537, 540, </t>
   </si>
   <si>
     <t>Blockchain in Agriculture</t>
@@ -800,8 +809,9 @@
     <col customWidth="1" min="3" max="3" width="18.38"/>
     <col customWidth="1" min="4" max="4" width="28.5"/>
     <col customWidth="1" min="5" max="5" width="21.13"/>
-    <col customWidth="1" min="14" max="14" width="20.88"/>
-    <col customWidth="1" min="15" max="16" width="25.13"/>
+    <col customWidth="1" min="14" max="14" width="11.88"/>
+    <col customWidth="1" min="15" max="15" width="17.5"/>
+    <col customWidth="1" min="16" max="16" width="12.13"/>
     <col customWidth="1" min="17" max="17" width="25.25"/>
   </cols>
   <sheetData>
@@ -1197,11 +1207,11 @@
       <c r="C11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="6">
-        <v>313.0</v>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
@@ -1226,24 +1236,24 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="5">
@@ -1260,7 +1270,7 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5">
@@ -1269,7 +1279,7 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="5">
@@ -1296,17 +1306,17 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5">
         <v>418.0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1323,16 +1333,16 @@
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="16">
         <v>319.0</v>
@@ -1345,11 +1355,11 @@
         <v>319.0</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="16">
-        <v>319.0</v>
+      <c r="K15" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="L15" s="16">
         <v>319.0</v>
@@ -1364,13 +1374,13 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5">
         <v>501.0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1391,7 +1401,7 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5">
         <v>325.0</v>
@@ -1401,7 +1411,7 @@
         <v>344358.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5">
         <v>344.0</v>
@@ -1428,10 +1438,10 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="5">
@@ -1451,23 +1461,25 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="5">
+        <v>554.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" s="10">
         <v>331365.0</v>
@@ -1476,7 +1488,7 @@
         <v>319331.0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I19" s="10">
         <v>3.19331365E8</v>
@@ -1485,36 +1497,36 @@
         <v>331.0</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L19" s="10">
         <v>319331.0</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F20" s="5">
         <v>342.0</v>
@@ -1545,19 +1557,19 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="5">
@@ -1580,14 +1592,14 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5">
         <v>330.0</v>
@@ -1611,19 +1623,19 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1644,14 +1656,14 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E24" s="5">
         <v>343.0</v>
@@ -1676,16 +1688,16 @@
         <v>52</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C25" s="5">
         <v>410.0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1704,19 +1716,19 @@
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1735,10 +1747,10 @@
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C27" s="18">
         <v>368.0</v>
@@ -1762,13 +1774,15 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="18">
+        <v>530.0</v>
+      </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -1782,15 +1796,15 @@
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="18">
@@ -1812,7 +1826,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B30" s="18">
         <v>465.0</v>
@@ -1839,10 +1853,10 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="21">
